--- a/Lib.Stats.xlsx
+++ b/Lib.Stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krom/gene-mapping-docker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krom/gene-map-nBC-docker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C5E8EA-6A45-EF44-ADFF-BC44E8A0DBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B452AA-D054-B54A-A0E2-C3319057DC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37420" yWindow="4520" windowWidth="17820" windowHeight="17440" xr2:uid="{5E8541BA-1EF9-A541-8CEE-198A1BD70607}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
-  <si>
-    <t>384-1x</t>
-  </si>
-  <si>
-    <t>384-2x</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Raw Rows</t>
   </si>
@@ -74,9 +68,6 @@
     <t>Gini Coefficient (tco1, all genes)</t>
   </si>
   <si>
-    <t>260 +/- 0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fraction of Perfect Genes </t>
   </si>
   <si>
@@ -86,22 +77,19 @@
     <t>Number of  Total Genes (&gt;99 reads)</t>
   </si>
   <si>
-    <t>500 +/- 0</t>
-  </si>
-  <si>
     <t>Mean % Perfects (&gt;99 reads)</t>
   </si>
   <si>
-    <t>Birch</t>
-  </si>
-  <si>
-    <t>Birch (Original)</t>
-  </si>
-  <si>
     <t>Percentage of Total Genes (&gt;99 reads)</t>
   </si>
   <si>
     <t>Percentage of Perfect Rows</t>
+  </si>
+  <si>
+    <t>L71-12k</t>
+  </si>
+  <si>
+    <t>L79-12k</t>
   </si>
 </sst>
 </file>
@@ -167,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,9 +173,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -527,350 +512,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC3B30C-BDF8-8246-BB54-76E506A89689}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
-        <v>1536</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>1108228</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1097219</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3175359</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1115244</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3875647</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
-        <v>56808</v>
-      </c>
-      <c r="D5" s="5">
-        <v>56999</v>
-      </c>
-      <c r="E5" s="5">
-        <v>127673</v>
-      </c>
-      <c r="F5" s="5">
-        <v>41248</v>
-      </c>
-      <c r="G5" s="5">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="10">
-        <f>0.05126*100</f>
-        <v>5.1260000000000003</v>
-      </c>
-      <c r="D6" s="10">
-        <f>0.05195*100</f>
-        <v>5.1950000000000003</v>
-      </c>
-      <c r="E6" s="10">
-        <f>0.04*100</f>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="10">
-        <f>0.036985*100</f>
-        <v>3.6984999999999997</v>
-      </c>
-      <c r="G6" s="9">
-        <f>(2.399*10^-5)*100</f>
-        <v>2.3990000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>384</v>
-      </c>
-      <c r="D7" s="1">
-        <v>384</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1536</v>
-      </c>
-      <c r="F7" s="1">
-        <v>384</v>
-      </c>
-      <c r="G7" s="1">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
-        <v>97</v>
-      </c>
-      <c r="D8" s="1">
-        <v>59</v>
-      </c>
-      <c r="E8" s="1">
-        <v>830</v>
-      </c>
-      <c r="F8" s="1">
-        <v>93</v>
-      </c>
-      <c r="G8" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.54</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.2422</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.16930000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>76</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44</v>
-      </c>
-      <c r="E10" s="1">
-        <v>469</v>
-      </c>
-      <c r="F10" s="1">
-        <v>191</v>
-      </c>
-      <c r="G10" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="10">
-        <f>(C10/C7)*100</f>
-        <v>19.791666666666664</v>
-      </c>
-      <c r="D11" s="10">
-        <f t="shared" ref="D11:G11" si="0">(D10/D7)*100</f>
-        <v>11.458333333333332</v>
-      </c>
-      <c r="E11" s="10">
-        <f t="shared" si="0"/>
-        <v>30.533854166666668</v>
-      </c>
-      <c r="F11" s="10">
-        <f t="shared" si="0"/>
-        <v>49.739583333333329</v>
-      </c>
-      <c r="G11" s="10">
-        <f t="shared" si="0"/>
-        <v>79.427083333333343</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6">
-        <v>27.89</v>
-      </c>
-      <c r="D13" s="6">
-        <v>31.35</v>
-      </c>
-      <c r="E13" s="6">
-        <v>22.46</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6">
-        <v>25.39</v>
-      </c>
-      <c r="D14" s="6">
-        <v>31.08</v>
-      </c>
-      <c r="E14" s="6">
-        <v>21.76</v>
-      </c>
-      <c r="F14" s="6">
-        <v>4.8022450000000001</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="8">
-        <v>25.26</v>
-      </c>
-      <c r="D15" s="8">
-        <v>15.36</v>
-      </c>
-      <c r="E15" s="8">
-        <v>54.04</v>
-      </c>
-      <c r="F15" s="8">
-        <v>24.22</v>
-      </c>
-      <c r="G15" s="8">
-        <v>16.93</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.90849999999999997</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.87109999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.8256</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.62219999999999998</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.23849999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.85389999999999999</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.82920000000000005</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.65010000000000001</v>
-      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
